--- a/data/HII.xlsx
+++ b/data/HII.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>26/11/2025</t>
+    <t>17/12/2025</t>
   </si>
   <si>
     <t>HII</t>
@@ -30299,7 +30299,7 @@
         <v>1.70928310379E11</v>
       </c>
       <c r="I29" s="25" t="n">
-        <v>3.04979916241E11</v>
+        <v>3.0497280079E11</v>
       </c>
       <c r="K29" s="25" t="n">
         <v>3.2419987253E10</v>
@@ -30395,7 +30395,7 @@
         <v>2.25160142563E11</v>
       </c>
       <c r="AP29" s="25" t="n">
-        <v>3.04979916241E11</v>
+        <v>3.0497280079E11</v>
       </c>
       <c r="AQ29" s="25" t="n">
         <v>3.26648840808E11</v>
@@ -31103,7 +31103,7 @@
         <v>9.8400917234E10</v>
       </c>
       <c r="I35" s="25" t="n">
-        <v>1.21697191771E11</v>
+        <v>1.2169007632E11</v>
       </c>
       <c r="K35" s="25" t="n">
         <v>0.0</v>
@@ -31199,7 +31199,7 @@
         <v>1.38946374599E11</v>
       </c>
       <c r="AP35" s="25" t="n">
-        <v>1.21697191771E11</v>
+        <v>1.2169007632E11</v>
       </c>
       <c r="AQ35" s="25" t="n">
         <v>1.92601200227E11</v>
@@ -33783,7 +33783,7 @@
         <v>4.4061250389E10</v>
       </c>
       <c r="I55" s="25" t="n">
-        <v>4.1923422452E10</v>
+        <v>4.1925956233E10</v>
       </c>
       <c r="K55" s="25" t="n">
         <v>3.106287419E9</v>
@@ -33879,7 +33879,7 @@
         <v>3.1829127351E10</v>
       </c>
       <c r="AP55" s="25" t="n">
-        <v>4.1923422452E10</v>
+        <v>4.1925956233E10</v>
       </c>
       <c r="AQ55" s="25" t="n">
         <v>1.0298437643E10</v>
@@ -33917,7 +33917,7 @@
         <v>-7.65975195E8</v>
       </c>
       <c r="I56" s="25" t="n">
-        <v>-2.557493297E9</v>
+        <v>-2.560027078E9</v>
       </c>
       <c r="K56" s="25" t="n">
         <v>0.0</v>
@@ -34013,7 +34013,7 @@
         <v>-1.809910508E9</v>
       </c>
       <c r="AP56" s="25" t="n">
-        <v>-2.557493297E9</v>
+        <v>-2.560027078E9</v>
       </c>
       <c r="AQ56" s="25" t="n">
         <v>-6.500778122E9</v>
@@ -35257,7 +35257,7 @@
         <v>1.8067894836E10</v>
       </c>
       <c r="I66" s="25" t="n">
-        <v>1.8326894836E10</v>
+        <v>1.8067894836E10</v>
       </c>
       <c r="K66" s="25" t="n">
         <v>1.5926986836E10</v>
@@ -35353,7 +35353,7 @@
         <v>1.8067894836E10</v>
       </c>
       <c r="AP66" s="25" t="n">
-        <v>1.8326894836E10</v>
+        <v>1.8067894836E10</v>
       </c>
       <c r="AQ66" s="25" t="n">
         <v>1.8326894836E10</v>
@@ -35391,7 +35391,7 @@
         <v>0.0</v>
       </c>
       <c r="I67" s="25" t="n">
-        <v>0.0</v>
+        <v>2.59E8</v>
       </c>
       <c r="K67" s="25" t="n">
         <v>0.0</v>
@@ -35487,7 +35487,7 @@
         <v>0.0</v>
       </c>
       <c r="AP67" s="25" t="n">
-        <v>0.0</v>
+        <v>2.59E8</v>
       </c>
       <c r="AQ67" s="25" t="n">
         <v>0.0</v>
@@ -38473,7 +38473,7 @@
         <v>0.0</v>
       </c>
       <c r="I90" s="25" t="n">
-        <v>0.0</v>
+        <v>2.441714227E9</v>
       </c>
       <c r="K90" s="25" t="n">
         <v>0.0</v>
@@ -38569,7 +38569,7 @@
         <v>0.0</v>
       </c>
       <c r="AP90" s="25" t="n">
-        <v>0.0</v>
+        <v>2.441714227E9</v>
       </c>
       <c r="AQ90" s="25" t="n">
         <v>0.0</v>
@@ -38607,7 +38607,7 @@
         <v>0.0</v>
       </c>
       <c r="I91" s="25" t="n">
-        <v>0.0</v>
+        <v>1.55289744E8</v>
       </c>
       <c r="K91" s="25" t="n">
         <v>0.0</v>
@@ -38703,7 +38703,7 @@
         <v>0.0</v>
       </c>
       <c r="AP91" s="25" t="n">
-        <v>0.0</v>
+        <v>1.55289744E8</v>
       </c>
       <c r="AQ91" s="25" t="n">
         <v>0.0</v>
@@ -39009,7 +39009,7 @@
         <v>0.0</v>
       </c>
       <c r="I94" s="25" t="n">
-        <v>0.0</v>
+        <v>2.068117298E9</v>
       </c>
       <c r="K94" s="25" t="n">
         <v>0.0</v>
@@ -39105,7 +39105,7 @@
         <v>0.0</v>
       </c>
       <c r="AP94" s="25" t="n">
-        <v>0.0</v>
+        <v>2.068117298E9</v>
       </c>
       <c r="AQ94" s="25" t="n">
         <v>0.0</v>
@@ -39143,7 +39143,7 @@
         <v>0.0</v>
       </c>
       <c r="I95" s="25" t="n">
-        <v>0.0</v>
+        <v>2.18307185E8</v>
       </c>
       <c r="K95" s="25" t="n">
         <v>0.0</v>
@@ -39239,7 +39239,7 @@
         <v>0.0</v>
       </c>
       <c r="AP95" s="25" t="n">
-        <v>0.0</v>
+        <v>2.18307185E8</v>
       </c>
       <c r="AQ95" s="25" t="n">
         <v>0.0</v>
@@ -39813,7 +39813,7 @@
         <v>7.612125306E9</v>
       </c>
       <c r="I100" s="25" t="n">
-        <v>0.0</v>
+        <v>9.579592291E9</v>
       </c>
       <c r="K100" s="25" t="n">
         <v>0.0</v>
@@ -40349,7 +40349,7 @@
         <v>7.612125306E9</v>
       </c>
       <c r="I104" s="25" t="n">
-        <v>0.0</v>
+        <v>9.579592291E9</v>
       </c>
       <c r="K104" s="25" t="n">
         <v>0.0</v>
@@ -43029,7 +43029,7 @@
         <v>7.886782247231E12</v>
       </c>
       <c r="I124" s="25" t="n">
-        <v>7.208551295725E12</v>
+        <v>7.208426389825E12</v>
       </c>
       <c r="K124" s="25" t="n">
         <v>1.40807693213E11</v>
@@ -43125,7 +43125,7 @@
         <v>1.832701302683E12</v>
       </c>
       <c r="AP124" s="25" t="n">
-        <v>2.044388233191E12</v>
+        <v>2.044263327291E12</v>
       </c>
       <c r="AQ124" s="25" t="n">
         <v>2.036626377346E12</v>
@@ -43297,7 +43297,7 @@
         <v>2.32386099121E11</v>
       </c>
       <c r="I126" s="25" t="n">
-        <v>3.63053895175E11</v>
+        <v>3.62928989275E11</v>
       </c>
       <c r="K126" s="25" t="n">
         <v>0.0</v>
@@ -43393,7 +43393,7 @@
         <v>1.1206092281E11</v>
       </c>
       <c r="AP126" s="25" t="n">
-        <v>8.9339697816E10</v>
+        <v>8.9214791916E10</v>
       </c>
       <c r="AQ126" s="25" t="n">
         <v>8.1224371108E10</v>
@@ -43565,7 +43565,7 @@
         <v>0.0</v>
       </c>
       <c r="I128" s="25" t="n">
-        <v>0.0</v>
+        <v>2.217000346E9</v>
       </c>
       <c r="K128" s="25" t="n">
         <v>0.0</v>
@@ -43833,7 +43833,7 @@
         <v>0.0</v>
       </c>
       <c r="I130" s="25" t="n">
-        <v>0.0</v>
+        <v>1.753118528E9</v>
       </c>
       <c r="K130" s="25" t="n">
         <v>0.0</v>
@@ -43967,7 +43967,7 @@
         <v>0.0</v>
       </c>
       <c r="I131" s="25" t="n">
-        <v>0.0</v>
+        <v>4.63881818E8</v>
       </c>
       <c r="K131" s="25" t="n">
         <v>0.0</v>
@@ -44503,7 +44503,7 @@
         <v>7.462338061034E12</v>
       </c>
       <c r="I135" s="25" t="n">
-        <v>6.659749642815E12</v>
+        <v>6.659444824184E12</v>
       </c>
       <c r="K135" s="25" t="n">
         <v>1.20274025472E11</v>
@@ -44599,7 +44599,7 @@
         <v>1.69483975777E12</v>
       </c>
       <c r="AP135" s="25" t="n">
-        <v>1.892024484623E12</v>
+        <v>1.891719665992E12</v>
       </c>
       <c r="AQ135" s="25" t="n">
         <v>1.891514609776E12</v>
@@ -44637,7 +44637,7 @@
         <v>6.659231577581E12</v>
       </c>
       <c r="I136" s="25" t="n">
-        <v>5.697631421538E12</v>
+        <v>5.697437327869E12</v>
       </c>
       <c r="K136" s="25" t="n">
         <v>1.20274025472E11</v>
@@ -44733,7 +44733,7 @@
         <v>1.445907140033E12</v>
       </c>
       <c r="AP136" s="25" t="n">
-        <v>1.643641780765E12</v>
+        <v>1.643447687096E12</v>
       </c>
       <c r="AQ136" s="25" t="n">
         <v>1.663557628418E12</v>
@@ -44771,7 +44771,7 @@
         <v>5.88970475957E11</v>
       </c>
       <c r="I137" s="25" t="n">
-        <v>6.21842743751E11</v>
+        <v>6.21183045036E11</v>
       </c>
       <c r="K137" s="25" t="n">
         <v>0.0</v>
@@ -44867,7 +44867,7 @@
         <v>1.42635162396E11</v>
       </c>
       <c r="AP137" s="25" t="n">
-        <v>1.65826490877E11</v>
+        <v>1.65166792162E11</v>
       </c>
       <c r="AQ137" s="25" t="n">
         <v>1.52422586157E11</v>
@@ -44905,7 +44905,7 @@
         <v>2.14136007496E11</v>
       </c>
       <c r="I138" s="25" t="n">
-        <v>3.40275477526E11</v>
+        <v>3.40239427965E11</v>
       </c>
       <c r="K138" s="25" t="n">
         <v>0.0</v>
@@ -45001,7 +45001,7 @@
         <v>1.06297455341E11</v>
       </c>
       <c r="AP138" s="25" t="n">
-        <v>8.2556212981E10</v>
+        <v>8.252016342E10</v>
       </c>
       <c r="AQ138" s="25" t="n">
         <v>7.5534395201E10</v>
@@ -45575,7 +45575,7 @@
         <v>0.0</v>
       </c>
       <c r="I143" s="25" t="n">
-        <v>0.0</v>
+        <v>5.85023314E8</v>
       </c>
       <c r="K143" s="25" t="n">
         <v>0.0</v>
@@ -45671,7 +45671,7 @@
         <v>0.0</v>
       </c>
       <c r="AP143" s="25" t="n">
-        <v>0.0</v>
+        <v>5.85023314E8</v>
       </c>
       <c r="AQ143" s="25" t="n">
         <v>0.0</v>
@@ -46513,7 +46513,7 @@
         <v>0.0</v>
       </c>
       <c r="I150" s="25" t="n">
-        <v>0.0</v>
+        <v>3.5387644526E10</v>
       </c>
       <c r="K150" s="25" t="n">
         <v>1.61152351E8</v>
@@ -46609,7 +46609,7 @@
         <v>0.0</v>
       </c>
       <c r="AP150" s="25" t="n">
-        <v>0.0</v>
+        <v>3.5387644526E10</v>
       </c>
       <c r="AQ150" s="25" t="n">
         <v>0.0</v>
@@ -46915,7 +46915,7 @@
         <v>2.3611163657E10</v>
       </c>
       <c r="I153" s="25" t="n">
-        <v>3.5387644526E10</v>
+        <v>0.0</v>
       </c>
       <c r="K153" s="25" t="n">
         <v>0.0</v>
@@ -47011,7 +47011,7 @@
         <v>5.476010912E9</v>
       </c>
       <c r="AP153" s="25" t="n">
-        <v>1.2874426963E10</v>
+        <v>-2.2513217563E10</v>
       </c>
       <c r="AQ153" s="25" t="n">
         <v>5.497801196E9</v>
@@ -47719,7 +47719,7 @@
         <v>0.0</v>
       </c>
       <c r="I159" s="25" t="n">
-        <v>0.0</v>
+        <v>2.845003642E9</v>
       </c>
       <c r="K159" s="25" t="n">
         <v>3.14382392E8</v>
@@ -47815,7 +47815,7 @@
         <v>0.0</v>
       </c>
       <c r="AP159" s="25" t="n">
-        <v>0.0</v>
+        <v>2.845003642E9</v>
       </c>
       <c r="AQ159" s="25" t="n">
         <v>0.0</v>
@@ -48121,7 +48121,7 @@
         <v>1.3348401287E10</v>
       </c>
       <c r="I162" s="25" t="n">
-        <v>4.778529201E9</v>
+        <v>1.933525559E9</v>
       </c>
       <c r="K162" s="25" t="n">
         <v>0.0</v>
@@ -48217,7 +48217,7 @@
         <v>6.42754569E8</v>
       </c>
       <c r="AP162" s="25" t="n">
-        <v>2.059894555E9</v>
+        <v>-7.85109087E8</v>
       </c>
       <c r="AQ162" s="25" t="n">
         <v>3.5105148928E10</v>
@@ -48255,7 +48255,7 @@
         <v>0.0</v>
       </c>
       <c r="I163" s="25" t="n">
-        <v>0.0</v>
+        <v>1.450657599636E12</v>
       </c>
       <c r="K163" s="25" t="n">
         <v>0.0</v>
@@ -48389,7 +48389,7 @@
         <v>0.0</v>
       </c>
       <c r="I164" s="25" t="n">
-        <v>0.0</v>
+        <v>5.50267652607E11</v>
       </c>
       <c r="K164" s="25" t="n">
         <v>0.0</v>
@@ -48523,7 +48523,7 @@
         <v>0.0</v>
       </c>
       <c r="I165" s="25" t="n">
-        <v>0.0</v>
+        <v>1.06565237673E11</v>
       </c>
       <c r="K165" s="25" t="n">
         <v>0.0</v>
@@ -48657,7 +48657,7 @@
         <v>0.0</v>
       </c>
       <c r="I166" s="25" t="n">
-        <v>0.0</v>
+        <v>4.2786593569E10</v>
       </c>
       <c r="K166" s="25" t="n">
         <v>0.0</v>
@@ -48791,7 +48791,7 @@
         <v>0.0</v>
       </c>
       <c r="I167" s="25" t="n">
-        <v>0.0</v>
+        <v>6.92557755829E11</v>
       </c>
       <c r="K167" s="25" t="n">
         <v>0.0</v>
@@ -48925,7 +48925,7 @@
         <v>0.0</v>
       </c>
       <c r="I168" s="25" t="n">
-        <v>0.0</v>
+        <v>5.8480359958E10</v>
       </c>
       <c r="K168" s="25" t="n">
         <v>0.0</v>

--- a/data/HII.xlsx
+++ b/data/HII.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>17/12/2025</t>
+    <t>21/12/2025</t>
   </si>
   <si>
     <t>HII</t>

--- a/data/HII.xlsx
+++ b/data/HII.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>21/12/2025</t>
+    <t>23/12/2025</t>
   </si>
   <si>
     <t>HII</t>

--- a/data/HII.xlsx
+++ b/data/HII.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>23/12/2025</t>
+    <t>25/12/2025</t>
   </si>
   <si>
     <t>HII</t>
